--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1687715.386654821</v>
+        <v>-1690283.586934188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10120672.17103262</v>
+        <v>10120672.17103263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>55.98344586238414</v>
       </c>
       <c r="H11" t="n">
-        <v>174.3014155613641</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412182</v>
+        <v>14.65581357412181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>82.26664558937171</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3198525186089</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>33.85844420154425</v>
       </c>
       <c r="G13" t="n">
         <v>139.1046920602241</v>
@@ -1582,16 +1582,16 @@
         <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
         <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377868</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X13" t="n">
-        <v>145.3635587313753</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6635371532907</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
-        <v>25.37653836175986</v>
+        <v>278.0212601684533</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429072</v>
+        <v>379.9549295429074</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546492</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937175</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9968539408159</v>
+        <v>176.9968539408161</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713309</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186088</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796648</v>
+        <v>342.809984479665</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831333</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998236</v>
+        <v>50.60274633374861</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F16" t="n">
-        <v>118.499931824127</v>
+        <v>118.4999318241272</v>
       </c>
       <c r="G16" t="n">
-        <v>139.104692060224</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103388</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T16" t="n">
-        <v>180.5900919243288</v>
+        <v>192.6278330773652</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250238</v>
+        <v>225.216527125024</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377868</v>
+        <v>259.601882137787</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7885391902329</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
         <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>332.9797929243148</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>228.8515791576869</v>
       </c>
       <c r="W17" t="n">
-        <v>72.32788947232454</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
         <v>295.8348478610724</v>
@@ -2002,25 +2002,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123115</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1344281826218</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917248</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553456</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163154</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8587620969241</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244141</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265064</v>
+        <v>15.03589985265067</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>178.2879804958505</v>
       </c>
       <c r="T19" t="n">
         <v>145.6526964587725</v>
@@ -2081,7 +2081,7 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D20" t="n">
         <v>280.7867888032863</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T20" t="n">
-        <v>17.69468514223236</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>141.5289734727466</v>
       </c>
       <c r="W20" t="n">
         <v>275.3447159000164</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123115</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081567</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917248</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553456</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163154</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8587620969241</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244141</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265064</v>
+        <v>77.45110783445585</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2879804958512</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T22" t="n">
         <v>145.6526964587725</v>
@@ -2318,7 +2318,7 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D23" t="n">
         <v>280.7867888032863</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222235</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3509353463465</v>
+        <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123115</v>
+        <v>93.35056828123118</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081567</v>
+        <v>74.7192202008157</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917248</v>
+        <v>72.53770982917251</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553456</v>
+        <v>71.52479520553459</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163154</v>
+        <v>92.12955544163157</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8587620969241</v>
+        <v>70.85876209692412</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244141</v>
+        <v>22.45616759244144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265064</v>
+        <v>77.45110783445631</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3016,7 +3016,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335019</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958321</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448878</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.2977551524148</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020902</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348607</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687277</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958319</v>
+        <v>62.21262516958313</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210274</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598763</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996196</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797646</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433853</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572807</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124538</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514547</v>
+        <v>41.9570160514546</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870201</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704444</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958318</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124545</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145469</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,10 +3724,10 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.099530153615</v>
+        <v>1464.890437807953</v>
       </c>
       <c r="C11" t="n">
-        <v>976.3300598786627</v>
+        <v>1123.120967533</v>
       </c>
       <c r="D11" t="n">
-        <v>645.2574079373705</v>
+        <v>792.0483155917086</v>
       </c>
       <c r="E11" t="n">
-        <v>645.2574079373705</v>
+        <v>792.0483155917086</v>
       </c>
       <c r="F11" t="n">
-        <v>645.2574079373705</v>
+        <v>408.2554574675596</v>
       </c>
       <c r="G11" t="n">
-        <v>257.3780044478258</v>
+        <v>351.70652225303</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725613</v>
+        <v>81.31596852725599</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801725</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801725</v>
+        <v>3063.723498851407</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.17076974102</v>
+        <v>2837.386068790702</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.300929062908</v>
+        <v>2533.516228112591</v>
       </c>
       <c r="W11" t="n">
-        <v>2386.725320458253</v>
+        <v>2533.516228112591</v>
       </c>
       <c r="X11" t="n">
-        <v>2040.452608862631</v>
+        <v>2187.24351651697</v>
       </c>
       <c r="Y11" t="n">
-        <v>1677.506323552278</v>
+        <v>1824.297231206616</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601591</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>689.386587004952</v>
+        <v>480.9665421140523</v>
       </c>
       <c r="C13" t="n">
-        <v>689.386587004952</v>
+        <v>480.9665421140523</v>
       </c>
       <c r="D13" t="n">
-        <v>566.4629942580752</v>
+        <v>480.9665421140523</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7429473411408</v>
+        <v>360.2464951971178</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0460465086892</v>
+        <v>326.0460465086893</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5362565488669</v>
+        <v>185.536256548867</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159351</v>
+        <v>138.2866539159352</v>
       </c>
       <c r="K13" t="n">
         <v>368.9257419016276</v>
@@ -5215,7 +5215,7 @@
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.509788383021</v>
@@ -5230,7 +5230,7 @@
         <v>1781.443382110291</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.533561901393</v>
+        <v>1519.533561901394</v>
       </c>
       <c r="V13" t="n">
         <v>1292.042120360965</v>
@@ -5239,10 +5239,10 @@
         <v>1029.817996989463</v>
       </c>
       <c r="X13" t="n">
-        <v>882.9861194830235</v>
+        <v>829.0214927569048</v>
       </c>
       <c r="Y13" t="n">
-        <v>689.386587004952</v>
+        <v>635.4219602788334</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.412451010743</v>
+        <v>1464.890437807953</v>
       </c>
       <c r="C14" t="n">
-        <v>1196.779583978662</v>
+        <v>1184.060882082242</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.779583978662</v>
+        <v>852.9882301409498</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1843780458768</v>
+        <v>852.9882301409498</v>
       </c>
       <c r="F14" t="n">
-        <v>454.391519921728</v>
+        <v>469.1953720168009</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725605</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725605</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810565</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.821120658852</v>
+        <v>3063.723498851407</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.483690598147</v>
+        <v>2837.386068790702</v>
       </c>
       <c r="V14" t="n">
-        <v>2616.613849920036</v>
+        <v>2533.51622811259</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.03824131538</v>
+        <v>2533.51622811259</v>
       </c>
       <c r="X14" t="n">
-        <v>1944.765529719759</v>
+        <v>2187.243516516969</v>
       </c>
       <c r="Y14" t="n">
-        <v>1581.819244409406</v>
+        <v>1824.297231206616</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.618714119785</v>
+        <v>480.9665421140513</v>
       </c>
       <c r="C16" t="n">
-        <v>515.8755778573365</v>
+        <v>429.8526569284468</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8755778573365</v>
+        <v>306.9290641815697</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8755778573365</v>
+        <v>186.2090172646352</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1786770248848</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650626</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483792</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>138.2866539159351</v>
@@ -5440,46 +5440,46 @@
         <v>368.9257419016276</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869399</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.509788383022</v>
+        <v>1976.016950875306</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.095554116023</v>
+        <v>1781.443382110291</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.185733907125</v>
+        <v>1519.533561901393</v>
       </c>
       <c r="V16" t="n">
-        <v>1468.694292366697</v>
+        <v>1292.042120360965</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.470168995196</v>
+        <v>1029.817996989463</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.673664762637</v>
+        <v>829.0214927569041</v>
       </c>
       <c r="Y16" t="n">
-        <v>812.0741322845658</v>
+        <v>635.4219602788326</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.314462232242</v>
+        <v>1544.168889247529</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905362</v>
+        <v>1249.84905192065</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912144</v>
+        <v>966.2260329274311</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274316</v>
+        <v>966.2260329274311</v>
       </c>
       <c r="F17" t="n">
-        <v>629.882807751356</v>
+        <v>629.8828077513556</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749799</v>
+        <v>3289.957832749797</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.957832749799</v>
+        <v>3158.622764747552</v>
       </c>
       <c r="U17" t="n">
-        <v>3111.070035637167</v>
+        <v>2979.73496763492</v>
       </c>
       <c r="V17" t="n">
-        <v>2854.649827907128</v>
+        <v>2748.571756364529</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.591353692659</v>
+        <v>2470.445780707947</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.768275045111</v>
+        <v>2171.622702060399</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.271622682832</v>
+        <v>1856.126049698119</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1605877751704</v>
+        <v>569.1149231470836</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8670844607955</v>
+        <v>474.8214198327087</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339048</v>
+        <v>399.3474600339049</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650436</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806653</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G19" t="n">
         <v>160.7696211689163</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271825</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454883</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822145</v>
+        <v>1370.433778194059</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782748</v>
       </c>
       <c r="X19" t="n">
-        <v>885.316272521876</v>
+        <v>822.2706078937895</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.166372991878</v>
+        <v>676.1207083637913</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5777,16 +5777,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749799</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
-        <v>3272.084413414211</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.196616301579</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V20" t="n">
-        <v>2836.77640857154</v>
+        <v>2836.776408571541</v>
       </c>
       <c r="W20" t="n">
         <v>2558.650432914958</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470833</v>
+        <v>569.1149231470836</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327085</v>
+        <v>474.8214198327087</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339048</v>
+        <v>399.3474600339049</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650436</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806653</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G22" t="n">
         <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459553</v>
+        <v>1849.061105831467</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.017901271824</v>
+        <v>1732.017901271825</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454882</v>
+        <v>1584.893965454883</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194058</v>
+        <v>1370.433778194059</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601703</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782744</v>
+        <v>975.6174791782748</v>
       </c>
       <c r="X22" t="n">
-        <v>822.270607893789</v>
+        <v>822.2706078937895</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.120708363791</v>
+        <v>676.1207083637913</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.17982079233</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85998346545</v>
+        <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.09139148752</v>
+        <v>973.0913914875205</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114445</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512978</v>
+        <v>388.467334642352</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411444</v>
+        <v>722.2867083321985</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.320921580606</v>
+        <v>1173.320921580607</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.852826252531</v>
+        <v>1706.852826252532</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.631643311313</v>
+        <v>2253.631643311314</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.60411419065</v>
+        <v>2756.604114190651</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.378480547828</v>
+        <v>3151.378480547829</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056816</v>
+        <v>3609.856683056817</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613619</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754246</v>
+        <v>3633.225760754247</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909329</v>
+        <v>3066.582687909331</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252747</v>
+        <v>2788.456712252748</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.633633605199</v>
+        <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242919</v>
+        <v>2174.136981242921</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073442</v>
+        <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632368</v>
+        <v>405.3189434632369</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0171037759022</v>
+        <v>772.0171037759023</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293428998218</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9802817071723</v>
+        <v>575.9802817071726</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927974</v>
+        <v>481.6867783927977</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939937</v>
+        <v>406.2128185939939</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251326</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290052</v>
+        <v>167.6349797290053</v>
       </c>
       <c r="H25" t="n">
-        <v>96.060472560395</v>
+        <v>96.06047256039506</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880843</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365804</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361294</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549610496067</v>
@@ -6169,28 +6169,28 @@
         <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019642</v>
+        <v>1855.926464391555</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92892446</v>
+        <v>1738.883259831914</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.804988643058</v>
+        <v>1591.759324014972</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382234</v>
+        <v>1377.299136754147</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789879</v>
+        <v>1197.257328161792</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>982.4828377383639</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819647</v>
+        <v>829.1359664538785</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519667</v>
+        <v>682.9860669238803</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.011402386886</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058811</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,10 +6388,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>1092.155029011367</v>
+        <v>792.1780824632697</v>
       </c>
       <c r="L29" t="n">
-        <v>1706.925601880498</v>
+        <v>1243.212295711679</v>
       </c>
       <c r="M29" t="n">
-        <v>2240.457506552423</v>
+        <v>1776.744200383603</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611205</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257041</v>
@@ -6616,16 +6616,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,16 +6649,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973131</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
@@ -6926,61 +6926,61 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398485</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659143</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.303399835339</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094413</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603401</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697991</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899656</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913836</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982158</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481261</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572249</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.59160627785</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519653</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
@@ -7178,46 +7178,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.011402386886</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1872.543307058811</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094413</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603401</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834456</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668913</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960294</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973125</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982154</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350171</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7394,64 +7394,64 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2568.163811692541</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3071.136282571878</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,52 +7646,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455611</v>
+        <v>810.8729904741849</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M44" t="n">
-        <v>1609.94386168679</v>
+        <v>2240.457506552422</v>
       </c>
       <c r="N44" t="n">
-        <v>2156.722678745572</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,13 +7804,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4855845364183</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>127.4855845364169</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>287.0017854473904</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>190.2350110279885</v>
       </c>
       <c r="L29" t="n">
-        <v>165.3902622431537</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>12.68816924374585</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154413</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>174.4519134245546</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.2206841544126</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>287.0017854473904</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>8.970374914502031</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>342.9371040273963</v>
       </c>
       <c r="P41" t="n">
-        <v>287.0017854473908</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>40.02214132148566</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>21.74982042514716</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>328.0171635922652</v>
       </c>
       <c r="H11" t="n">
-        <v>93.38523262715223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831332</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.64148762258287</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.0110364712432</v>
+        <v>62.01103647124322</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>53.42498045885773</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>312.9752372104435</v>
+        <v>60.33051540375021</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885162</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412175</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937179</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.319852518609</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>89.72295856607519</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602242</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103402</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124312</v>
+        <v>62.01103647124326</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326377</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>12.03774115303614</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>25.00442649505136</v>
       </c>
       <c r="W17" t="n">
-        <v>203.0168264276918</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>112.3270321799911</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>112.3270321799916</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1241893.495166985</v>
+        <v>1241893.495166984</v>
       </c>
     </row>
     <row r="8">
@@ -26320,16 +26320,16 @@
         <v>163858.3816166718</v>
       </c>
       <c r="E2" t="n">
-        <v>145908.3426825905</v>
+        <v>145908.3426825904</v>
       </c>
       <c r="F2" t="n">
-        <v>145908.3426825904</v>
+        <v>145908.3426825903</v>
       </c>
       <c r="G2" t="n">
         <v>158906.3803563579</v>
       </c>
       <c r="H2" t="n">
-        <v>158906.380356358</v>
+        <v>158906.3803563579</v>
       </c>
       <c r="I2" t="n">
         <v>164208.3539728567</v>
@@ -26338,22 +26338,22 @@
         <v>164208.3539728567</v>
       </c>
       <c r="K2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="L2" t="n">
         <v>164208.3539728566</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728565</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728566</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936261</v>
+        <v>38521.85015936262</v>
       </c>
       <c r="E3" t="n">
         <v>1106215.961015503</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487399</v>
+        <v>37580.10929487395</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071765</v>
+        <v>22820.53767071774</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.3482204903</v>
+        <v>25410.34822049027</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>422862.8573343059</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554742</v>
+        <v>38195.30988554741</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.3098855475</v>
+        <v>38195.30988554739</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400181</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400181</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.1327915718</v>
+        <v>86759.13279157183</v>
       </c>
       <c r="J4" t="n">
         <v>82806.76150409839</v>
       </c>
       <c r="K4" t="n">
+        <v>82806.76150409842</v>
+      </c>
+      <c r="L4" t="n">
+        <v>82806.76150409842</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82806.76150409845</v>
+      </c>
+      <c r="N4" t="n">
+        <v>82806.76150409842</v>
+      </c>
+      <c r="O4" t="n">
         <v>82806.76150409837</v>
-      </c>
-      <c r="L4" t="n">
-        <v>82806.76150409839</v>
-      </c>
-      <c r="M4" t="n">
-        <v>82806.76150409839</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409837</v>
-      </c>
-      <c r="O4" t="n">
-        <v>82806.76150409844</v>
       </c>
       <c r="P4" t="n">
         <v>82806.76150409839</v>
@@ -26476,19 +26476,19 @@
         <v>34688.26308058918</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911058</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911058</v>
+        <v>76569.57187911059</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949901</v>
       </c>
       <c r="H5" t="n">
         <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516663</v>
+        <v>85736.39714516664</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,19 +26497,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="M5" t="n">
         <v>89377.9416748061</v>
       </c>
-      <c r="M5" t="n">
-        <v>89377.94167480612</v>
-      </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480609</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-306046.2119758405</v>
+        <v>-306050.6255537086</v>
       </c>
       <c r="C6" t="n">
-        <v>-308438.6551914209</v>
+        <v>-308443.0658301986</v>
       </c>
       <c r="D6" t="n">
-        <v>-332214.5889575859</v>
+        <v>-332218.9636120382</v>
       </c>
       <c r="E6" t="n">
-        <v>-1075072.500097571</v>
+        <v>-1075301.250238699</v>
       </c>
       <c r="F6" t="n">
-        <v>31143.46091793232</v>
+        <v>30914.71077680406</v>
       </c>
       <c r="G6" t="n">
-        <v>-34415.56072201692</v>
+        <v>-34481.83539222305</v>
       </c>
       <c r="H6" t="n">
-        <v>3164.548572857209</v>
+        <v>3098.273902650889</v>
       </c>
       <c r="I6" t="n">
-        <v>-31107.71363459935</v>
+        <v>-31107.71363459951</v>
       </c>
       <c r="J6" t="n">
-        <v>-33386.69742653813</v>
+        <v>-33386.6974265381</v>
       </c>
       <c r="K6" t="n">
-        <v>-7976.349206047948</v>
+        <v>-7976.349206047831</v>
       </c>
       <c r="L6" t="n">
-        <v>-45556.45850092184</v>
+        <v>-45556.45850092199</v>
       </c>
       <c r="M6" t="n">
-        <v>-215164.917498121</v>
+        <v>-215164.9174981209</v>
       </c>
       <c r="N6" t="n">
-        <v>-7976.349206047686</v>
+        <v>-7976.349206047715</v>
       </c>
       <c r="O6" t="n">
-        <v>-7976.349206047904</v>
+        <v>-7976.349206047569</v>
       </c>
       <c r="P6" t="n">
-        <v>-7976.349206047889</v>
+        <v>-7976.349206047846</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179741</v>
+        <v>48.65426975179743</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034047</v>
+        <v>917.218437403405</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26826,7 +26826,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.9804068585551</v>
+        <v>44.98040685855511</v>
       </c>
       <c r="E3" t="n">
         <v>1041.122430841501</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8169820011118</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520976</v>
+        <v>97.11802380520965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9211161988042</v>
+        <v>26.92111619880406</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D19" t="n">
-        <v>11.48104483559058</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739669</v>
+        <v>11.48104483559135</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739669</v>
+        <v>11.48104483559148</v>
       </c>
       <c r="S22" t="n">
-        <v>11.48104483559069</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.48104483559081</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739669</v>
+        <v>11.48104483559102</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739669</v>
+        <v>73.89625281739666</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859128</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859097</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661858909</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859271</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859061</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859114</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785824</v>
+        <v>0.1955950542785825</v>
       </c>
       <c r="H8" t="n">
         <v>2.003137849630533</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075056</v>
+        <v>7.540678330075059</v>
       </c>
       <c r="J8" t="n">
         <v>16.60088573807685</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568925</v>
+        <v>24.88042438568926</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806742</v>
+        <v>30.86636652806743</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459416</v>
+        <v>34.34478007459417</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256318</v>
+        <v>34.9005145225632</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158053</v>
+        <v>32.95556620158054</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907802</v>
+        <v>28.12681329907803</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772628</v>
+        <v>21.12206541772629</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832701</v>
+        <v>12.28654782832702</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373202</v>
+        <v>4.457122299373203</v>
       </c>
       <c r="T8" t="n">
-        <v>0.856217350104495</v>
+        <v>0.8562173501044953</v>
       </c>
       <c r="U8" t="n">
         <v>0.01564760434228659</v>
@@ -31598,25 +31598,25 @@
         <v>1.010723603711867</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901979</v>
+        <v>3.60316997690198</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145928</v>
+        <v>9.88737381814593</v>
       </c>
       <c r="K9" t="n">
         <v>16.8990966929427</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172388</v>
+        <v>22.72292098172389</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472959</v>
+        <v>26.5165770147296</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577203</v>
+        <v>27.21839190577204</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929957</v>
+        <v>24.89951104929958</v>
       </c>
       <c r="P9" t="n">
         <v>19.98405279673355</v>
@@ -31625,16 +31625,16 @@
         <v>13.35881006468219</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589099</v>
+        <v>6.497640024589101</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347754</v>
+        <v>1.943875777347755</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386971869</v>
+        <v>0.421823338697187</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424166</v>
+        <v>0.006885038172424167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,25 +31671,25 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914287</v>
+        <v>0.0877372077491429</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878345</v>
+        <v>0.7800635379878347</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310588</v>
+        <v>2.638497120310589</v>
       </c>
       <c r="J10" t="n">
-        <v>6.2030205878644</v>
+        <v>6.203020587864402</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849132</v>
+        <v>10.19346831849133</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935893</v>
+        <v>13.04412995935894</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016791</v>
+        <v>13.75320612016792</v>
       </c>
       <c r="N10" t="n">
         <v>13.42618561855748</v>
@@ -31701,19 +31701,19 @@
         <v>10.61141647176906</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.34679473252141</v>
+        <v>7.346794732521412</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793277</v>
+        <v>3.944983904793279</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773698</v>
+        <v>1.529020247773699</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827012</v>
+        <v>0.3748771603827014</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00478566587722598</v>
+        <v>0.004785665877225982</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32558,10 +32558,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32795,10 +32795,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187035</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
@@ -35583,7 +35583,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3153547366978</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554015</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187042</v>
+        <v>72.49953281187031</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431238</v>
+        <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7780623663443</v>
+        <v>371.7780623663442</v>
       </c>
       <c r="O16" t="n">
-        <v>329.274246421444</v>
+        <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366979</v>
+        <v>105.3153547366977</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36206,10 +36206,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>318.2725855051309</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>583.075698928749</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36443,10 +36443,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>742.5918998397226</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>527.426297583389</v>
       </c>
       <c r="L29" t="n">
-        <v>620.9803766354859</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>520.741170131965</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737849</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629109</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>726.7537488374661</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>675.9826703737845</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165894</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629123</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887892</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120766</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861328</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412289</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637031</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564864</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>742.5918998397226</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>407.7323611338739</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165684</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37789,16 +37789,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>850.9901049156155</v>
       </c>
       <c r="P41" t="n">
-        <v>685.7637716667626</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162913</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.608516012075</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>377.2134278768862</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>560.6709362553739</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
